--- a/data/aprob-dyad-ratio/serie_dyad_ratios.xlsx
+++ b/data/aprob-dyad-ratio/serie_dyad_ratios.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,10 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>presidencia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>aprobacion</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>saldo</t>
         </is>
@@ -380,10 +385,15 @@
           <t>1990 Q3</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>35.6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.5</v>
       </c>
     </row>
@@ -393,10 +403,15 @@
           <t>1990 Q4</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>33</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-8.699999999999999</v>
       </c>
     </row>
@@ -406,10 +421,15 @@
           <t>1991 Q1</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>33.9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-6.9</v>
       </c>
     </row>
@@ -419,10 +439,15 @@
           <t>1991 Q2</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>33.9</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-6.9</v>
       </c>
     </row>
@@ -432,10 +457,15 @@
           <t>1991 Q3</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C6">
         <v>34.9</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-5</v>
       </c>
     </row>
@@ -445,10 +475,15 @@
           <t>1991 Q4</t>
         </is>
       </c>
-      <c r="B7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C7">
         <v>32.9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-7.5</v>
       </c>
     </row>
@@ -458,10 +493,15 @@
           <t>1992 Q1</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C8">
         <v>32.6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-10.2</v>
       </c>
     </row>
@@ -471,10 +511,15 @@
           <t>1992 Q2</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C9">
         <v>32.2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-12.8</v>
       </c>
     </row>
@@ -484,10 +529,15 @@
           <t>1992 Q3</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C10">
         <v>30.9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-16.2</v>
       </c>
     </row>
@@ -497,10 +547,15 @@
           <t>1992 Q4</t>
         </is>
       </c>
-      <c r="B11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C11">
         <v>32.8</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-14.3</v>
       </c>
     </row>
@@ -510,10 +565,15 @@
           <t>1993 Q1</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C12">
         <v>35.5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-8.300000000000001</v>
       </c>
     </row>
@@ -523,10 +583,15 @@
           <t>1993 Q2</t>
         </is>
       </c>
-      <c r="B13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C13">
         <v>33</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-12.7</v>
       </c>
     </row>
@@ -536,10 +601,15 @@
           <t>1993 Q3</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C14">
         <v>32.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-9.199999999999999</v>
       </c>
     </row>
@@ -549,10 +619,15 @@
           <t>1993 Q4</t>
         </is>
       </c>
-      <c r="B15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C15">
         <v>35.2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-5.7</v>
       </c>
     </row>
@@ -562,10 +637,15 @@
           <t>1994 Q1</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C16">
         <v>35.3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-4.9</v>
       </c>
     </row>
@@ -575,10 +655,15 @@
           <t>1994 Q2</t>
         </is>
       </c>
-      <c r="B17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C17">
         <v>37.3</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.9</v>
       </c>
     </row>
@@ -588,10 +673,15 @@
           <t>1994 Q3</t>
         </is>
       </c>
-      <c r="B18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C18">
         <v>41.2</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>7.9</v>
       </c>
     </row>
@@ -601,10 +691,15 @@
           <t>1994 Q4</t>
         </is>
       </c>
-      <c r="B19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lacalle</t>
+        </is>
+      </c>
+      <c r="C19">
         <v>42.9</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>10.9</v>
       </c>
     </row>
@@ -614,10 +709,15 @@
           <t>1995 Q1</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C20">
         <v>41.8</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>12.2</v>
       </c>
     </row>
@@ -627,10 +727,15 @@
           <t>1995 Q2</t>
         </is>
       </c>
-      <c r="B21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C21">
         <v>40.8</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>13.4</v>
       </c>
     </row>
@@ -640,10 +745,15 @@
           <t>1995 Q3</t>
         </is>
       </c>
-      <c r="B22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C22">
         <v>40.3</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -653,10 +763,15 @@
           <t>1995 Q4</t>
         </is>
       </c>
-      <c r="B23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C23">
         <v>40.3</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>7.3</v>
       </c>
     </row>
@@ -666,10 +781,15 @@
           <t>1996 Q1</t>
         </is>
       </c>
-      <c r="B24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C24">
         <v>40.4</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6.9</v>
       </c>
     </row>
@@ -679,10 +799,15 @@
           <t>1996 Q2</t>
         </is>
       </c>
-      <c r="B25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C25">
         <v>37.9</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>3.9</v>
       </c>
     </row>
@@ -692,10 +817,15 @@
           <t>1996 Q3</t>
         </is>
       </c>
-      <c r="B26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C26">
         <v>39.4</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4</v>
       </c>
     </row>
@@ -705,10 +835,15 @@
           <t>1996 Q4</t>
         </is>
       </c>
-      <c r="B27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C27">
         <v>40.8</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>6.2</v>
       </c>
     </row>
@@ -718,10 +853,15 @@
           <t>1997 Q1</t>
         </is>
       </c>
-      <c r="B28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C28">
         <v>41.5</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>8.6</v>
       </c>
     </row>
@@ -731,10 +871,15 @@
           <t>1997 Q2</t>
         </is>
       </c>
-      <c r="B29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C29">
         <v>39.5</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>6.3</v>
       </c>
     </row>
@@ -744,10 +889,15 @@
           <t>1997 Q3</t>
         </is>
       </c>
-      <c r="B30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C30">
         <v>39.3</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5.8</v>
       </c>
     </row>
@@ -757,10 +907,15 @@
           <t>1997 Q4</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C31">
         <v>41.5</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>11.5</v>
       </c>
     </row>
@@ -770,10 +925,15 @@
           <t>1998 Q1</t>
         </is>
       </c>
-      <c r="B32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C32">
         <v>43.9</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>15.7</v>
       </c>
     </row>
@@ -783,10 +943,15 @@
           <t>1998 Q2</t>
         </is>
       </c>
-      <c r="B33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C33">
         <v>44</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>14.5</v>
       </c>
     </row>
@@ -796,10 +961,15 @@
           <t>1998 Q3</t>
         </is>
       </c>
-      <c r="B34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C34">
         <v>42.9</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>13.2</v>
       </c>
     </row>
@@ -809,10 +979,15 @@
           <t>1998 Q4</t>
         </is>
       </c>
-      <c r="B35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C35">
         <v>44.9</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>17.1</v>
       </c>
     </row>
@@ -822,10 +997,15 @@
           <t>1999 Q1</t>
         </is>
       </c>
-      <c r="B36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C36">
         <v>44.9</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>15.4</v>
       </c>
     </row>
@@ -835,10 +1015,15 @@
           <t>1999 Q2</t>
         </is>
       </c>
-      <c r="B37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C37">
         <v>41.8</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>9.699999999999999</v>
       </c>
     </row>
@@ -848,10 +1033,15 @@
           <t>1999 Q3</t>
         </is>
       </c>
-      <c r="B38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C38">
         <v>49.8</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>27</v>
       </c>
     </row>
@@ -861,10 +1051,15 @@
           <t>1999 Q4</t>
         </is>
       </c>
-      <c r="B39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sanguinetti II</t>
+        </is>
+      </c>
+      <c r="C39">
         <v>49.8</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>26.9</v>
       </c>
     </row>
@@ -874,10 +1069,15 @@
           <t>2000 Q1</t>
         </is>
       </c>
-      <c r="B40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C40">
         <v>49.8</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>26.9</v>
       </c>
     </row>
@@ -887,10 +1087,15 @@
           <t>2000 Q2</t>
         </is>
       </c>
-      <c r="B41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C41">
         <v>57</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>43.2</v>
       </c>
     </row>
@@ -900,10 +1105,15 @@
           <t>2000 Q3</t>
         </is>
       </c>
-      <c r="B42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C42">
         <v>52</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>32.3</v>
       </c>
     </row>
@@ -913,10 +1123,15 @@
           <t>2000 Q4</t>
         </is>
       </c>
-      <c r="B43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C43">
         <v>45.1</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>15.6</v>
       </c>
     </row>
@@ -926,10 +1141,15 @@
           <t>2001 Q1</t>
         </is>
       </c>
-      <c r="B44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C44">
         <v>46</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>16.5</v>
       </c>
     </row>
@@ -939,10 +1159,15 @@
           <t>2001 Q2</t>
         </is>
       </c>
-      <c r="B45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C45">
         <v>44.6</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>15.9</v>
       </c>
     </row>
@@ -952,10 +1177,15 @@
           <t>2001 Q3</t>
         </is>
       </c>
-      <c r="B46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C46">
         <v>43.9</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>14.3</v>
       </c>
     </row>
@@ -965,10 +1195,15 @@
           <t>2001 Q4</t>
         </is>
       </c>
-      <c r="B47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C47">
         <v>42.3</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>12.1</v>
       </c>
     </row>
@@ -978,10 +1213,15 @@
           <t>2002 Q1</t>
         </is>
       </c>
-      <c r="B48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C48">
         <v>38</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>2.1</v>
       </c>
     </row>
@@ -991,10 +1231,15 @@
           <t>2002 Q2</t>
         </is>
       </c>
-      <c r="B49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C49">
         <v>34.4</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>-7.9</v>
       </c>
     </row>
@@ -1004,10 +1249,15 @@
           <t>2002 Q3</t>
         </is>
       </c>
-      <c r="B50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C50">
         <v>30.1</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>-17.8</v>
       </c>
     </row>
@@ -1017,10 +1267,15 @@
           <t>2002 Q4</t>
         </is>
       </c>
-      <c r="B51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C51">
         <v>29.8</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>-17.6</v>
       </c>
     </row>
@@ -1030,10 +1285,15 @@
           <t>2003 Q1</t>
         </is>
       </c>
-      <c r="B52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C52">
         <v>26.8</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>-26.5</v>
       </c>
     </row>
@@ -1043,10 +1303,15 @@
           <t>2003 Q2</t>
         </is>
       </c>
-      <c r="B53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C53">
         <v>27.5</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-24.4</v>
       </c>
     </row>
@@ -1056,10 +1321,15 @@
           <t>2003 Q3</t>
         </is>
       </c>
-      <c r="B54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C54">
         <v>27.6</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>-25.2</v>
       </c>
     </row>
@@ -1069,10 +1339,15 @@
           <t>2003 Q4</t>
         </is>
       </c>
-      <c r="B55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C55">
         <v>28.1</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>-26</v>
       </c>
     </row>
@@ -1082,10 +1357,15 @@
           <t>2004 Q1</t>
         </is>
       </c>
-      <c r="B56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C56">
         <v>29.6</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>-20.6</v>
       </c>
     </row>
@@ -1095,10 +1375,15 @@
           <t>2004 Q2</t>
         </is>
       </c>
-      <c r="B57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C57">
         <v>29.1</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-22.8</v>
       </c>
     </row>
@@ -1108,10 +1393,15 @@
           <t>2004 Q3</t>
         </is>
       </c>
-      <c r="B58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C58">
         <v>29.9</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>-22.7</v>
       </c>
     </row>
@@ -1121,10 +1411,15 @@
           <t>2004 Q4</t>
         </is>
       </c>
-      <c r="B59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Batlle</t>
+        </is>
+      </c>
+      <c r="C59">
         <v>31.8</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>-16.8</v>
       </c>
     </row>
@@ -1134,10 +1429,15 @@
           <t>2005 Q1</t>
         </is>
       </c>
-      <c r="B60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C60">
         <v>67.09999999999999</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>58.7</v>
       </c>
     </row>
@@ -1147,10 +1447,15 @@
           <t>2005 Q2</t>
         </is>
       </c>
-      <c r="B61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C61">
         <v>70.7</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>63.2</v>
       </c>
     </row>
@@ -1160,10 +1465,15 @@
           <t>2005 Q3</t>
         </is>
       </c>
-      <c r="B62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C62">
         <v>60.9</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>47.1</v>
       </c>
     </row>
@@ -1173,10 +1483,15 @@
           <t>2005 Q4</t>
         </is>
       </c>
-      <c r="B63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C63">
         <v>58.5</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>42.7</v>
       </c>
     </row>
@@ -1186,10 +1501,15 @@
           <t>2006 Q1</t>
         </is>
       </c>
-      <c r="B64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C64">
         <v>59.8</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>44.2</v>
       </c>
     </row>
@@ -1199,10 +1519,15 @@
           <t>2006 Q2</t>
         </is>
       </c>
-      <c r="B65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C65">
         <v>52.8</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>30.9</v>
       </c>
     </row>
@@ -1212,10 +1537,15 @@
           <t>2006 Q3</t>
         </is>
       </c>
-      <c r="B66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C66">
         <v>53.1</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>33.3</v>
       </c>
     </row>
@@ -1225,10 +1555,15 @@
           <t>2006 Q4</t>
         </is>
       </c>
-      <c r="B67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C67">
         <v>55.1</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>38.7</v>
       </c>
     </row>
@@ -1238,10 +1573,15 @@
           <t>2007 Q1</t>
         </is>
       </c>
-      <c r="B68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C68">
         <v>54.2</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>34.6</v>
       </c>
     </row>
@@ -1251,10 +1591,15 @@
           <t>2007 Q2</t>
         </is>
       </c>
-      <c r="B69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C69">
         <v>52.8</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>33.4</v>
       </c>
     </row>
@@ -1264,10 +1609,15 @@
           <t>2007 Q3</t>
         </is>
       </c>
-      <c r="B70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C70">
         <v>51.9</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>30.6</v>
       </c>
     </row>
@@ -1277,10 +1627,15 @@
           <t>2007 Q4</t>
         </is>
       </c>
-      <c r="B71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C71">
         <v>50.7</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>28.2</v>
       </c>
     </row>
@@ -1290,10 +1645,15 @@
           <t>2008 Q1</t>
         </is>
       </c>
-      <c r="B72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C72">
         <v>53.4</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>36.5</v>
       </c>
     </row>
@@ -1303,10 +1663,15 @@
           <t>2008 Q2</t>
         </is>
       </c>
-      <c r="B73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C73">
         <v>52.4</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>33.8</v>
       </c>
     </row>
@@ -1316,10 +1681,15 @@
           <t>2008 Q3</t>
         </is>
       </c>
-      <c r="B74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C74">
         <v>56.9</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>37.3</v>
       </c>
     </row>
@@ -1329,10 +1699,15 @@
           <t>2008 Q4</t>
         </is>
       </c>
-      <c r="B75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C75">
         <v>57</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>37.6</v>
       </c>
     </row>
@@ -1342,10 +1717,15 @@
           <t>2009 Q1</t>
         </is>
       </c>
-      <c r="B76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C76">
         <v>59.3</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>40.9</v>
       </c>
     </row>
@@ -1355,10 +1735,15 @@
           <t>2009 Q2</t>
         </is>
       </c>
-      <c r="B77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C77">
         <v>60.7</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>42.7</v>
       </c>
     </row>
@@ -1368,10 +1753,15 @@
           <t>2009 Q3</t>
         </is>
       </c>
-      <c r="B78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C78">
         <v>61.7</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>45</v>
       </c>
     </row>
@@ -1381,10 +1771,15 @@
           <t>2009 Q4</t>
         </is>
       </c>
-      <c r="B79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Vázquez I</t>
+        </is>
+      </c>
+      <c r="C79">
         <v>62.3</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>45.8</v>
       </c>
     </row>
@@ -1394,10 +1789,15 @@
           <t>2010 Q1</t>
         </is>
       </c>
-      <c r="B80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C80">
         <v>65.3</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>52.1</v>
       </c>
     </row>
@@ -1407,10 +1807,15 @@
           <t>2010 Q2</t>
         </is>
       </c>
-      <c r="B81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C81">
         <v>68.3</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>55.9</v>
       </c>
     </row>
@@ -1420,10 +1825,15 @@
           <t>2010 Q3</t>
         </is>
       </c>
-      <c r="B82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C82">
         <v>66.2</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>50.2</v>
       </c>
     </row>
@@ -1433,10 +1843,15 @@
           <t>2010 Q4</t>
         </is>
       </c>
-      <c r="B83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C83">
         <v>60.8</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>44</v>
       </c>
     </row>
@@ -1446,10 +1861,15 @@
           <t>2011 Q1</t>
         </is>
       </c>
-      <c r="B84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C84">
         <v>53.1</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>28.8</v>
       </c>
     </row>
@@ -1459,10 +1879,15 @@
           <t>2011 Q2</t>
         </is>
       </c>
-      <c r="B85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C85">
         <v>45.5</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>12.9</v>
       </c>
     </row>
@@ -1472,10 +1897,15 @@
           <t>2011 Q3</t>
         </is>
       </c>
-      <c r="B86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C86">
         <v>52.9</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>30.6</v>
       </c>
     </row>
@@ -1485,10 +1915,15 @@
           <t>2011 Q4</t>
         </is>
       </c>
-      <c r="B87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C87">
         <v>55.2</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>36.4</v>
       </c>
     </row>
@@ -1498,10 +1933,15 @@
           <t>2012 Q1</t>
         </is>
       </c>
-      <c r="B88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C88">
         <v>54.6</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>33.5</v>
       </c>
     </row>
@@ -1511,10 +1951,15 @@
           <t>2012 Q2</t>
         </is>
       </c>
-      <c r="B89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C89">
         <v>51.6</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>28.2</v>
       </c>
     </row>
@@ -1524,10 +1969,15 @@
           <t>2012 Q3</t>
         </is>
       </c>
-      <c r="B90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C90">
         <v>48</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>20</v>
       </c>
     </row>
@@ -1537,10 +1987,15 @@
           <t>2012 Q4</t>
         </is>
       </c>
-      <c r="B91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C91">
         <v>49.4</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>22.1</v>
       </c>
     </row>
@@ -1550,10 +2005,15 @@
           <t>2013 Q1</t>
         </is>
       </c>
-      <c r="B92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C92">
         <v>53.4</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>27.6</v>
       </c>
     </row>
@@ -1563,10 +2023,15 @@
           <t>2013 Q2</t>
         </is>
       </c>
-      <c r="B93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C93">
         <v>52.6</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>27.6</v>
       </c>
     </row>
@@ -1576,10 +2041,15 @@
           <t>2013 Q3</t>
         </is>
       </c>
-      <c r="B94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C94">
         <v>50</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>20.7</v>
       </c>
     </row>
@@ -1589,10 +2059,15 @@
           <t>2013 Q4</t>
         </is>
       </c>
-      <c r="B95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C95">
         <v>51.7</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>35.1</v>
       </c>
     </row>
@@ -1602,10 +2077,15 @@
           <t>2014 Q1</t>
         </is>
       </c>
-      <c r="B96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C96">
         <v>55.5</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>32.7</v>
       </c>
     </row>
@@ -1615,10 +2095,15 @@
           <t>2014 Q2</t>
         </is>
       </c>
-      <c r="B97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C97">
         <v>58.1</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>35.8</v>
       </c>
     </row>
@@ -1628,10 +2113,15 @@
           <t>2014 Q3</t>
         </is>
       </c>
-      <c r="B98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C98">
         <v>58.5</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>38.1</v>
       </c>
     </row>
@@ -1641,10 +2131,15 @@
           <t>2014 Q4</t>
         </is>
       </c>
-      <c r="B99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mujica</t>
+        </is>
+      </c>
+      <c r="C99">
         <v>64.3</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>45.5</v>
       </c>
     </row>
@@ -1654,10 +2149,15 @@
           <t>2015 Q1</t>
         </is>
       </c>
-      <c r="B100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C100">
         <v>59.1</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>44.7</v>
       </c>
     </row>
@@ -1667,10 +2167,15 @@
           <t>2015 Q2</t>
         </is>
       </c>
-      <c r="B101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C101">
         <v>60.9</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>49</v>
       </c>
     </row>
@@ -1680,10 +2185,15 @@
           <t>2015 Q3</t>
         </is>
       </c>
-      <c r="B102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C102">
         <v>50.6</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>29.7</v>
       </c>
     </row>
@@ -1693,10 +2203,15 @@
           <t>2015 Q4</t>
         </is>
       </c>
-      <c r="B103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C103">
         <v>45.3</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>21.1</v>
       </c>
     </row>
@@ -1706,10 +2221,15 @@
           <t>2016 Q1</t>
         </is>
       </c>
-      <c r="B104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C104">
         <v>45.5</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>17.3</v>
       </c>
     </row>
@@ -1719,10 +2239,15 @@
           <t>2016 Q2</t>
         </is>
       </c>
-      <c r="B105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C105">
         <v>44.9</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>15</v>
       </c>
     </row>
@@ -1732,10 +2257,15 @@
           <t>2016 Q3</t>
         </is>
       </c>
-      <c r="B106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C106">
         <v>45.6</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>15.6</v>
       </c>
     </row>
@@ -1745,10 +2275,15 @@
           <t>2016 Q4</t>
         </is>
       </c>
-      <c r="B107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C107">
         <v>44.3</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>13.5</v>
       </c>
     </row>
@@ -1758,10 +2293,15 @@
           <t>2017 Q1</t>
         </is>
       </c>
-      <c r="B108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C108">
         <v>42.8</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>9.800000000000001</v>
       </c>
     </row>
@@ -1771,10 +2311,15 @@
           <t>2017 Q2</t>
         </is>
       </c>
-      <c r="B109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C109">
         <v>40.9</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>8.6</v>
       </c>
     </row>
@@ -1784,10 +2329,15 @@
           <t>2017 Q3</t>
         </is>
       </c>
-      <c r="B110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C110">
         <v>40.9</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>3.6</v>
       </c>
     </row>
@@ -1797,10 +2347,15 @@
           <t>2017 Q4</t>
         </is>
       </c>
-      <c r="B111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C111">
         <v>45.9</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>12</v>
       </c>
     </row>
@@ -1810,10 +2365,15 @@
           <t>2018 Q1</t>
         </is>
       </c>
-      <c r="B112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C112">
         <v>39.3</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>2.5</v>
       </c>
     </row>
@@ -1823,10 +2383,15 @@
           <t>2018 Q2</t>
         </is>
       </c>
-      <c r="B113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C113">
         <v>42.4</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>6.1</v>
       </c>
     </row>
@@ -1836,10 +2401,15 @@
           <t>2018 Q3</t>
         </is>
       </c>
-      <c r="B114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C114">
         <v>39.5</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.1</v>
       </c>
     </row>
@@ -1849,10 +2419,15 @@
           <t>2018 Q4</t>
         </is>
       </c>
-      <c r="B115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C115">
         <v>39.2</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>-0</v>
       </c>
     </row>
@@ -1862,10 +2437,15 @@
           <t>2019 Q1</t>
         </is>
       </c>
-      <c r="B116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C116">
         <v>40.8</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>0.5</v>
       </c>
     </row>
@@ -1875,10 +2455,15 @@
           <t>2019 Q2</t>
         </is>
       </c>
-      <c r="B117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C117">
         <v>36.6</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>-8.5</v>
       </c>
     </row>
@@ -1888,10 +2473,15 @@
           <t>2019 Q3</t>
         </is>
       </c>
-      <c r="B118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C118">
         <v>44.5</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>7.2</v>
       </c>
     </row>
@@ -1901,10 +2491,15 @@
           <t>2019 Q4</t>
         </is>
       </c>
-      <c r="B119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Vázquez II</t>
+        </is>
+      </c>
+      <c r="C119">
         <v>49.8</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>15.4</v>
       </c>
     </row>
@@ -1914,10 +2509,15 @@
           <t>2020 Q1</t>
         </is>
       </c>
-      <c r="B120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Lacalle Pou</t>
+        </is>
+      </c>
+      <c r="C120">
         <v>68.7</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>52.6</v>
       </c>
     </row>
@@ -1927,10 +2527,15 @@
           <t>2020 Q2</t>
         </is>
       </c>
-      <c r="B121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Lacalle Pou</t>
+        </is>
+      </c>
+      <c r="C121">
         <v>66.7</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>52.8</v>
       </c>
     </row>
@@ -1940,10 +2545,15 @@
           <t>2020 Q3</t>
         </is>
       </c>
-      <c r="B122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Lacalle Pou</t>
+        </is>
+      </c>
+      <c r="C122">
         <v>65.59999999999999</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>50.5</v>
       </c>
     </row>
@@ -1953,10 +2563,15 @@
           <t>2020 Q4</t>
         </is>
       </c>
-      <c r="B123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Lacalle Pou</t>
+        </is>
+      </c>
+      <c r="C123">
         <v>66.5</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>51</v>
       </c>
     </row>
@@ -1966,10 +2581,15 @@
           <t>2021 Q1</t>
         </is>
       </c>
-      <c r="B124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Lacalle Pou</t>
+        </is>
+      </c>
+      <c r="C124">
         <v>62.8</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>43.5</v>
       </c>
     </row>
@@ -1979,10 +2599,15 @@
           <t>2021 Q2</t>
         </is>
       </c>
-      <c r="B125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Lacalle Pou</t>
+        </is>
+      </c>
+      <c r="C125">
         <v>62.7</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>43.4</v>
       </c>
     </row>
@@ -1992,10 +2617,15 @@
           <t>2021 Q3</t>
         </is>
       </c>
-      <c r="B126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Lacalle Pou</t>
+        </is>
+      </c>
+      <c r="C126">
         <v>62.7</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>43.4</v>
       </c>
     </row>
